--- a/src/test/java/pres/auxiliary/work/selenium/tool/Test.xlsx
+++ b/src/test/java/pres/auxiliary/work/selenium/tool/Test.xlsx
@@ -120,7 +120,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>0.01s</t>
+      <t>0.009s</t>
     </r>
   </si>
   <si>
@@ -180,7 +180,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>2020-08-31 12:50:19</t>
+      <t>2020-09-05 19:05:25</t>
     </r>
   </si>
   <si>
@@ -297,7 +297,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>0.004s</t>
+      <t>0.003s</t>
     </r>
   </si>
   <si>

--- a/src/test/java/pres/auxiliary/work/selenium/tool/Test.xlsx
+++ b/src/test/java/pres/auxiliary/work/selenium/tool/Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="78">
   <si>
     <t>用例编号</t>
   </si>
@@ -120,7 +120,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>0.009s</t>
+      <t>0.015s</t>
     </r>
   </si>
   <si>
@@ -180,7 +180,7 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
-      <t>2020-09-05 19:05:25</t>
+      <t>2020-09-25 12:54:42</t>
     </r>
   </si>
   <si>
@@ -378,6 +378,244 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
+      <t>0.009s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>caseConditionTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>0.005s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>caseExpectTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>0.011s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>caseStepTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>caseTitleTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>exceptionTest_HasFile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>exceptionTest_NotFile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>runMarkTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>这是备注信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.结果1，不是BUG</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color indexed="10"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.结果2，是BUG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>runResultTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>runScreenshotTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>runStepTest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.第一步</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.第二步</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>3.第三步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
       <t>测试第1预期</t>
     </r>
   </si>
@@ -438,6 +676,87 @@
         <sz val="12.0"/>
         <rFont val="宋体"/>
       </rPr>
+      <t>1.测试用例前置条件1</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2.测试用例前置条件2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>测试用例预期1</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>测试用例预期2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>测试用例步骤1</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>测试用例步骤2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>测试用例标题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
       <t>1.src\test\java\pres\auxiliary\work\selenium\tool\微信图片_20200828101657.png</t>
     </r>
   </si>
@@ -511,6 +830,54 @@
         <rFont val="宋体"/>
       </rPr>
       <t>2.实际第5步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.抛出了RecordStateException异常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.pres.auxiliary.work.selenium.tool.RecordStateException</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1.抛出了NullPointerException异常</t>
     </r>
   </si>
 </sst>
@@ -519,14 +886,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="91">
+  <fonts count="291">
     <font>
       <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <u val="single"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -831,6 +1197,809 @@
       <name val="宋体"/>
       <sz val="12.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -941,7 +2110,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="276">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -1127,40 +2296,622 @@
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -1192,7 +2943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2.0" ySplit="1.0"/>
@@ -1226,37 +2977,105 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>42</v>
+      <c r="A2" s="224" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="226" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="225" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="222" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="223" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>42</v>
+      <c r="A3" s="229" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="231" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="227" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="234" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="236" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="233" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="241" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="238" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="244" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="246" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="245" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="243" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="251" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="248" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1264,6 +3083,10 @@
   <hyperlinks>
     <hyperlink location="'运行记录'!B2" ref="A2"/>
     <hyperlink location="'运行记录'!B3" ref="A3"/>
+    <hyperlink location="'运行记录'!B4" ref="A4"/>
+    <hyperlink location="'运行记录'!B5" ref="A5"/>
+    <hyperlink location="'运行记录'!B6" ref="A6"/>
+    <hyperlink location="'运行记录'!B7" ref="A7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1271,7 +3094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="F2" xSplit="5.0" ySplit="1.0"/>
@@ -1448,13 +3271,543 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="155" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="145" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="148" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="165" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="162" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="159" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="164" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="187" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="177" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="175" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="182" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="189" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="202" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="200" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="204" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="203" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="201" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="197" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="191" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="190" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="195" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="196" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="205" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="216" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="215" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="219" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="217" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="209" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="213" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="207" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="206" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="214" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="221" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P1"/>
-  <dataValidations count="2">
+  <dataValidations count="12">
     <dataValidation type="list" sqref="E2" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E3" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E4" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E5" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E6" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E7" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E8" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E9" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E10" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E11" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E12" allowBlank="true" errorStyle="stop">
+      <formula1>数据有效性!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E13" allowBlank="true" errorStyle="stop">
       <formula1>数据有效性!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1464,6 +3817,13 @@
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink location="'测试用例'!A3" ref="B3"/>
     <hyperlink location="'错误记录'!A2" ref="E3"/>
+    <hyperlink location="'测试用例'!A4" ref="B4"/>
+    <hyperlink location="'测试用例'!A5" ref="B5"/>
+    <hyperlink location="'测试用例'!A6" ref="B6"/>
+    <hyperlink location="'测试用例'!A7" ref="B7"/>
+    <hyperlink location="'错误记录'!A3" ref="E8"/>
+    <hyperlink location="'错误记录'!A4" ref="E9"/>
+    <hyperlink ref="I12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1471,7 +3831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="4.0" ySplit="1.0"/>
@@ -1513,37 +3873,83 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="260" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="261" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="257" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>46</v>
+      <c r="D2" s="258" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="252" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="76" t="s">
+      <c r="D3" s="259" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="256" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="254" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="267" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="268" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="265" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="266" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="263" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="262" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="275" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="74" t="s">
-        <v>48</v>
+      <c r="D5" s="273" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="271" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="270" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="269" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1551,6 +3957,9 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink location="'运行记录'!D3" ref="C2"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink location="'运行记录'!D8" ref="C4"/>
+    <hyperlink location="'运行记录'!D9" ref="C5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
